--- a/model/network-proxy.orm.xlsx
+++ b/model/network-proxy.orm.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\IdeaProjects\internal-network-proxy\model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1730877-BC40-46AE-B4F4-9BEF2210CE13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{247D1E53-2849-4085-A831-D588B714F6F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{392982CA-C4D8-434C-9678-96E43A892558}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{392982CA-C4D8-434C-9678-96E43A892558}"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="107">
   <si>
     <t>序号</t>
   </si>
@@ -393,10 +393,6 @@
   </si>
   <si>
     <t>端口映射表</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>internal-network-proxy</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -762,6 +758,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -770,15 +775,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1102,14 +1098,14 @@
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.6640625" customWidth="1"/>
-    <col min="2" max="3" width="19.58203125" customWidth="1"/>
+    <col min="1" max="1" width="5.625" customWidth="1"/>
+    <col min="2" max="3" width="19.625" customWidth="1"/>
     <col min="4" max="4" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1123,7 +1119,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1131,7 +1127,7 @@
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1139,37 +1135,37 @@
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -1186,17 +1182,17 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.08203125" customWidth="1"/>
-    <col min="2" max="2" width="27.9140625" customWidth="1"/>
+    <col min="1" max="1" width="22.125" customWidth="1"/>
+    <col min="2" max="2" width="27.875" customWidth="1"/>
     <col min="3" max="3" width="39.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
@@ -1207,7 +1203,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -1216,7 +1212,7 @@
       </c>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -1225,7 +1221,7 @@
       </c>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -1234,7 +1230,7 @@
       </c>
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -1243,7 +1239,7 @@
       </c>
       <c r="C5" s="1"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -1252,16 +1248,16 @@
       </c>
       <c r="C6" s="1"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
@@ -1270,7 +1266,7 @@
       </c>
       <c r="C8" s="1"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
@@ -1279,7 +1275,7 @@
       </c>
       <c r="C9" s="1"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
@@ -1288,7 +1284,7 @@
       </c>
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>90</v>
       </c>
@@ -1297,27 +1293,27 @@
       </c>
       <c r="C11" s="1"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -1336,15 +1332,15 @@
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.9140625" customWidth="1"/>
+    <col min="1" max="1" width="4.875" customWidth="1"/>
     <col min="2" max="4" width="8.5" customWidth="1"/>
-    <col min="5" max="5" width="9.1640625" customWidth="1"/>
+    <col min="5" max="5" width="9.125" customWidth="1"/>
     <col min="6" max="7" width="8.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -1367,7 +1363,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -1384,7 +1380,7 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -1401,7 +1397,7 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -1418,7 +1414,7 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -1435,7 +1431,7 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -1452,7 +1448,7 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -1469,7 +1465,7 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -1484,7 +1480,7 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -1503,7 +1499,7 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -1520,7 +1516,7 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -1535,7 +1531,7 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -1550,7 +1546,7 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <v>12</v>
       </c>
@@ -1567,7 +1563,7 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <v>13</v>
       </c>
@@ -1582,7 +1578,7 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
         <v>14</v>
       </c>
@@ -1599,7 +1595,7 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="5">
         <v>15</v>
       </c>
@@ -1613,7 +1609,7 @@
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="5">
         <v>16</v>
       </c>
@@ -1630,7 +1626,7 @@
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="5">
         <v>17</v>
       </c>
@@ -1649,7 +1645,7 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="5">
         <v>18</v>
       </c>
@@ -1671,7 +1667,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="5">
         <v>19</v>
       </c>
@@ -1707,14 +1703,14 @@
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="4.9140625" customWidth="1"/>
+    <col min="1" max="2" width="4.875" customWidth="1"/>
     <col min="3" max="3" width="8.5" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" customWidth="1"/>
+    <col min="4" max="4" width="16.625" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
     <col min="6" max="6" width="14.25" customWidth="1"/>
-    <col min="7" max="7" width="20.83203125" customWidth="1"/>
+    <col min="7" max="7" width="20.875" customWidth="1"/>
   </cols>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -1730,154 +1726,153 @@
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.33203125" customWidth="1"/>
-    <col min="2" max="2" width="4.4140625" customWidth="1"/>
-    <col min="3" max="3" width="5.6640625" customWidth="1"/>
-    <col min="4" max="4" width="12.9140625" customWidth="1"/>
+    <col min="1" max="2" width="4.375" customWidth="1"/>
+    <col min="3" max="3" width="5.625" customWidth="1"/>
+    <col min="4" max="4" width="12.875" customWidth="1"/>
     <col min="5" max="5" width="4.75" customWidth="1"/>
-    <col min="6" max="6" width="15.08203125" customWidth="1"/>
-    <col min="7" max="7" width="39.4140625" customWidth="1"/>
-    <col min="8" max="8" width="14.58203125" customWidth="1"/>
+    <col min="6" max="6" width="15.125" customWidth="1"/>
+    <col min="7" max="7" width="39.375" customWidth="1"/>
+    <col min="8" max="8" width="14.625" customWidth="1"/>
     <col min="9" max="9" width="4.75" customWidth="1"/>
     <col min="10" max="10" width="11" customWidth="1"/>
-    <col min="11" max="11" width="6.08203125" customWidth="1"/>
+    <col min="11" max="11" width="6.125" customWidth="1"/>
     <col min="12" max="12" width="8.25" customWidth="1"/>
-    <col min="13" max="13" width="12.6640625" customWidth="1"/>
-    <col min="14" max="14" width="11.08203125" customWidth="1"/>
+    <col min="13" max="13" width="12.625" customWidth="1"/>
+    <col min="14" max="14" width="11.125" customWidth="1"/>
     <col min="15" max="16" width="8.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="14" t="s">
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
       <c r="H1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I1" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
       <c r="N1" s="10"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="13" t="s">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="14" t="s">
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
       <c r="H2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
       <c r="N2" s="10"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="13" t="s">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A3" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
       <c r="H3" s="3"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
       <c r="N3" s="10"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="13" t="s">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A4" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
       <c r="N4" s="9"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="16"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="16"/>
-      <c r="O5" s="16"/>
-      <c r="P5" s="16"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="17" t="s">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A5" s="13"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="13"/>
+      <c r="P5" s="13"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A6" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="17"/>
-      <c r="N6" s="17"/>
-      <c r="O6" s="17"/>
-      <c r="P6" s="17"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="14"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>27</v>
       </c>
@@ -1927,7 +1922,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>1</v>
       </c>
@@ -1961,7 +1956,7 @@
       <c r="O8" s="5"/>
       <c r="P8" s="1"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <v>2</v>
       </c>
@@ -1993,7 +1988,7 @@
       <c r="O9" s="5"/>
       <c r="P9" s="1"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <v>3</v>
       </c>
@@ -2025,7 +2020,7 @@
       <c r="O10" s="5"/>
       <c r="P10" s="1"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <v>4</v>
       </c>
@@ -2057,7 +2052,7 @@
       <c r="O11" s="5"/>
       <c r="P11" s="1"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <v>5</v>
       </c>
@@ -2087,7 +2082,7 @@
       <c r="O12" s="5"/>
       <c r="P12" s="1"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <v>9</v>
       </c>
@@ -2117,7 +2112,7 @@
       <c r="O13" s="5"/>
       <c r="P13" s="1"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <v>10</v>
       </c>
@@ -2151,7 +2146,7 @@
       <c r="O14" s="5"/>
       <c r="P14" s="1"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
         <v>11</v>
       </c>
@@ -2185,7 +2180,7 @@
       <c r="O15" s="5"/>
       <c r="P15" s="1"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="5">
         <v>12</v>
       </c>
@@ -2219,7 +2214,7 @@
       <c r="O16" s="5"/>
       <c r="P16" s="1"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>21</v>
       </c>
@@ -2243,46 +2238,52 @@
       <c r="O17" s="5"/>
       <c r="P17" s="1"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A18" s="16"/>
-      <c r="B18" s="16"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="16"/>
-      <c r="J18" s="16"/>
-      <c r="K18" s="16"/>
-      <c r="L18" s="16"/>
-      <c r="M18" s="16"/>
-      <c r="N18" s="16"/>
-      <c r="O18" s="16"/>
-      <c r="P18" s="16"/>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A20" s="18" t="s">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A18" s="13"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="13"/>
+      <c r="O18" s="13"/>
+      <c r="P18" s="13"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A20" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="B20" s="18"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="18"/>
-      <c r="J20" s="18"/>
-      <c r="K20" s="18"/>
-      <c r="L20" s="18"/>
-      <c r="M20" s="18"/>
-      <c r="N20" s="18"/>
-      <c r="O20" s="18"/>
-      <c r="P20" s="18"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="15"/>
+      <c r="L20" s="15"/>
+      <c r="M20" s="15"/>
+      <c r="N20" s="15"/>
+      <c r="O20" s="15"/>
+      <c r="P20" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
     <mergeCell ref="A5:P5"/>
     <mergeCell ref="A6:P6"/>
     <mergeCell ref="A18:P18"/>
@@ -2292,12 +2293,6 @@
     <mergeCell ref="I3:M3"/>
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="D4:M4"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/model/network-proxy.orm.xlsx
+++ b/model/network-proxy.orm.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\IdeaProjects\internal-network-proxy\model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{247D1E53-2849-4085-A831-D588B714F6F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CABE3C59-2A92-4CC0-B76C-CC139E414AA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{392982CA-C4D8-434C-9678-96E43A892558}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{392982CA-C4D8-434C-9678-96E43A892558}"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="1" r:id="rId1"/>
     <sheet name="配置" sheetId="2" r:id="rId2"/>
     <sheet name="域定义" sheetId="3" r:id="rId3"/>
     <sheet name="字典定义" sheetId="38" r:id="rId4"/>
-    <sheet name="litemall_ad" sheetId="4" r:id="rId5"/>
+    <sheet name="port_mapping" sheetId="4" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="aftersale_status">字典定义!#REF!</definedName>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="116">
   <si>
     <t>序号</t>
   </si>
@@ -393,6 +393,71 @@
   </si>
   <si>
     <t>端口映射表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 填写说明</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>注意：所有列表结构的第一列，如编号和序号列必须是数字，且不能为空，系统内部通过此列来识别列表结构的起始行</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+1. 主键列：对于主键所在的列，标记PK
+2. 是否非空列: 对于必填字段，标记M
+3. 数据类型：必须是StdSqlType中定义的类型，包括BOOLEAN, TINYINT, INTEGER, BIGINT, CHAR, VARCHAR, DATE, DATETIME, TIMESTAMP, DECIMAL, FLOAT, DOUBLE等。
+4. 字段标签: seq表示自动生成的ID，var表示随机值，masked表示打印到log中时需要掩码.not-pub表示不会返回到前台。sort表示列表的缺省排序字段, sort-desc表示缺省按照此字段的降序排序
+显示：X表示在界面上不显示，由程序内部使用， R表示只读字段，C表示不允许修改但允许插入，S表示占据单行显示，L表示在列表上不显示</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+5. 对象标签: no-web表示不为该对象生成前台页面</t>
+    </r>
+  </si>
+  <si>
+    <t>唯一键列表</t>
+  </si>
+  <si>
+    <t>唯一键名</t>
+  </si>
+  <si>
+    <t>数据库约束名</t>
+  </si>
+  <si>
+    <t>注释</t>
+  </si>
+  <si>
+    <t>userNameKey</t>
+  </si>
+  <si>
+    <t>serverPort</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UK_PORT_MAPPING_SERVER_PORT</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -400,7 +465,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -445,8 +510,23 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -471,8 +551,26 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79995117038483843"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39994506668294322"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="17">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -706,6 +804,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -718,7 +840,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -756,6 +878,66 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1181,7 +1363,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52BD13D9-4EA2-4D14-AE80-4351CC2FC3DF}">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
@@ -1720,10 +1902,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13170299-07EF-445F-BE4E-77E46104F826}">
-  <dimension ref="A1:P20"/>
+  <dimension ref="A1:P32"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1745,132 +1927,132 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="17" t="s">
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="37" t="s">
         <v>104</v>
       </c>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
       <c r="H1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I1" s="18" t="s">
+      <c r="I1" s="38" t="s">
         <v>105</v>
       </c>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
       <c r="N1" s="10"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="17" t="s">
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="37" t="s">
         <v>106</v>
       </c>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
       <c r="H2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
       <c r="N2" s="10"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
       <c r="H3" s="3"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
       <c r="N3" s="10"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="17"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="37"/>
+      <c r="L4" s="37"/>
+      <c r="M4" s="37"/>
       <c r="N4" s="9"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A5" s="13"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="13"/>
-      <c r="O5" s="13"/>
-      <c r="P5" s="13"/>
+      <c r="A5" s="33"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="33"/>
+      <c r="L5" s="33"/>
+      <c r="M5" s="33"/>
+      <c r="N5" s="33"/>
+      <c r="O5" s="33"/>
+      <c r="P5" s="33"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14"/>
-      <c r="O6" s="14"/>
-      <c r="P6" s="14"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="34"/>
+      <c r="K6" s="34"/>
+      <c r="L6" s="34"/>
+      <c r="M6" s="34"/>
+      <c r="N6" s="34"/>
+      <c r="O6" s="34"/>
+      <c r="P6" s="34"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
@@ -1977,11 +2159,9 @@
         <v>40</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="K9" s="5">
-        <v>63</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="K9" s="5"/>
       <c r="L9" s="5"/>
       <c r="M9" s="6"/>
       <c r="N9" s="6"/>
@@ -2070,7 +2250,7 @@
       </c>
       <c r="H12" s="6"/>
       <c r="I12" s="5" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="J12" s="6" t="s">
         <v>41</v>
@@ -2100,7 +2280,7 @@
       </c>
       <c r="H13" s="6"/>
       <c r="I13" s="5" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="J13" s="6" t="s">
         <v>47</v>
@@ -2108,7 +2288,9 @@
       <c r="K13" s="5"/>
       <c r="L13" s="5"/>
       <c r="M13" s="6"/>
-      <c r="N13" s="6"/>
+      <c r="N13" s="6" t="b">
+        <v>0</v>
+      </c>
       <c r="O13" s="5"/>
       <c r="P13" s="1"/>
     </row>
@@ -2239,45 +2421,145 @@
       <c r="P17" s="1"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A18" s="13"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="13"/>
-      <c r="M18" s="13"/>
-      <c r="N18" s="13"/>
-      <c r="O18" s="13"/>
-      <c r="P18" s="13"/>
+      <c r="A18" s="33"/>
+      <c r="B18" s="33"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="33"/>
+      <c r="J18" s="33"/>
+      <c r="K18" s="33"/>
+      <c r="L18" s="33"/>
+      <c r="M18" s="33"/>
+      <c r="N18" s="33"/>
+      <c r="O18" s="33"/>
+      <c r="P18" s="33"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A20" s="15" t="s">
+      <c r="A20" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="B20" s="15"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="15"/>
-      <c r="K20" s="15"/>
-      <c r="L20" s="15"/>
-      <c r="M20" s="15"/>
-      <c r="N20" s="15"/>
-      <c r="O20" s="15"/>
-      <c r="P20" s="15"/>
+      <c r="B20" s="35"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="35"/>
+      <c r="I20" s="35"/>
+      <c r="J20" s="35"/>
+      <c r="K20" s="35"/>
+      <c r="L20" s="35"/>
+      <c r="M20" s="35"/>
+      <c r="N20" s="35"/>
+      <c r="O20" s="35"/>
+      <c r="P20" s="35"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A22" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="B22" s="24"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="24"/>
+      <c r="J22" s="24"/>
+      <c r="K22" s="24"/>
+      <c r="L22" s="24"/>
+      <c r="M22" s="24"/>
+      <c r="N22" s="24"/>
+      <c r="O22" s="24"/>
+      <c r="P22" s="25"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A23" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="C23" s="20"/>
+      <c r="D23" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23" s="20"/>
+      <c r="F23" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="G23" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="H23" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="I23" s="21"/>
+      <c r="J23" s="21"/>
+      <c r="K23" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="L23" s="22"/>
+      <c r="M23" s="22"/>
+      <c r="N23" s="22"/>
+      <c r="O23" s="22"/>
+      <c r="P23" s="20"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A24" s="15">
+        <v>1</v>
+      </c>
+      <c r="B24" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="C24" s="26"/>
+      <c r="D24" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="E24" s="26"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="27" t="s">
+        <v>115</v>
+      </c>
+      <c r="I24" s="28"/>
+      <c r="J24" s="29"/>
+      <c r="K24" s="30"/>
+      <c r="L24" s="31"/>
+      <c r="M24" s="31"/>
+      <c r="N24" s="31"/>
+      <c r="O24" s="31"/>
+      <c r="P24" s="32"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B31" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="C31" s="13"/>
+    </row>
+    <row r="32" spans="1:16" ht="153.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="18"/>
+      <c r="H32" s="18"/>
+      <c r="I32" s="18"/>
+      <c r="J32" s="18"/>
+      <c r="K32" s="18"/>
+      <c r="L32" s="18"/>
+      <c r="M32" s="18"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="25">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:G1"/>
     <mergeCell ref="I1:M1"/>
@@ -2293,6 +2575,16 @@
     <mergeCell ref="I3:M3"/>
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="D4:M4"/>
+    <mergeCell ref="A22:P22"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="K24:P24"/>
+    <mergeCell ref="B32:M32"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="K23:P23"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/model/network-proxy.orm.xlsx
+++ b/model/network-proxy.orm.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\IdeaProjects\internal-network-proxy\model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CABE3C59-2A92-4CC0-B76C-CC139E414AA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A2573B3-6E33-4331-9008-D7F5E85ABE9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{392982CA-C4D8-434C-9678-96E43A892558}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="4" xr2:uid="{392982CA-C4D8-434C-9678-96E43A892558}"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="1" r:id="rId1"/>
     <sheet name="配置" sheetId="2" r:id="rId2"/>
     <sheet name="域定义" sheetId="3" r:id="rId3"/>
     <sheet name="字典定义" sheetId="38" r:id="rId4"/>
-    <sheet name="port_mapping" sheetId="4" r:id="rId5"/>
+    <sheet name="proxy_port_mapping" sheetId="4" r:id="rId5"/>
+    <sheet name="proxy_clients" sheetId="39" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="aftersale_status">字典定义!#REF!</definedName>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="152">
   <si>
     <t>序号</t>
   </si>
@@ -381,18 +382,6 @@
   </si>
   <si>
     <t>协议</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>port_mapping</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>PortMapping</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>端口映射表</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -460,12 +449,168 @@
     <t>UK_PORT_MAPPING_SERVER_PORT</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>proxy_clients</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProxyClients</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>NAME</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否启用</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>nameKey</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UK_PROXY_CLIENTS_NAME</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>disp</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CLIENT_ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性名</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>关联属性名</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>关联对象</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>中文名</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>英文名</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>关联类型</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>to-one</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>关联中文名</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>关联英文名</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>标签</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>关联条件</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>序号</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>左属性</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>左值</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>右属性</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>右值</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户端</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>client</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Client</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>clientId</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>proxy_port_mapping</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProxyPortMapping</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>pub,ref-pub,ref-cascade-delete</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>端口映射</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>portMapping</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PortMapping</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户端</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -525,8 +670,23 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="8" tint="0.79998168889431442"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -569,8 +729,38 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="19">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -828,6 +1018,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -840,7 +1041,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -892,6 +1093,120 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="16" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -910,53 +1225,29 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1280,14 +1571,14 @@
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.625" customWidth="1"/>
-    <col min="2" max="3" width="19.625" customWidth="1"/>
+    <col min="1" max="1" width="5.58203125" customWidth="1"/>
+    <col min="2" max="3" width="19.58203125" customWidth="1"/>
     <col min="4" max="4" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1301,7 +1592,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1309,7 +1600,7 @@
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1317,37 +1608,37 @@
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -1367,14 +1658,14 @@
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.125" customWidth="1"/>
-    <col min="2" max="2" width="27.875" customWidth="1"/>
+    <col min="1" max="1" width="22.08203125" customWidth="1"/>
+    <col min="2" max="2" width="27.83203125" customWidth="1"/>
     <col min="3" max="3" width="39.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
@@ -1385,7 +1676,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -1394,7 +1685,7 @@
       </c>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -1403,7 +1694,7 @@
       </c>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -1412,7 +1703,7 @@
       </c>
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -1421,7 +1712,7 @@
       </c>
       <c r="C5" s="1"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -1430,7 +1721,7 @@
       </c>
       <c r="C6" s="1"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
@@ -1439,7 +1730,7 @@
       </c>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
@@ -1448,7 +1739,7 @@
       </c>
       <c r="C8" s="1"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
@@ -1457,7 +1748,7 @@
       </c>
       <c r="C9" s="1"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
@@ -1466,7 +1757,7 @@
       </c>
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>90</v>
       </c>
@@ -1475,27 +1766,27 @@
       </c>
       <c r="C11" s="1"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -1514,15 +1805,15 @@
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.875" customWidth="1"/>
+    <col min="1" max="1" width="4.83203125" customWidth="1"/>
     <col min="2" max="4" width="8.5" customWidth="1"/>
-    <col min="5" max="5" width="9.125" customWidth="1"/>
+    <col min="5" max="5" width="9.08203125" customWidth="1"/>
     <col min="6" max="7" width="8.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -1545,7 +1836,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -1562,7 +1853,7 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -1579,7 +1870,7 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -1596,7 +1887,7 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -1613,7 +1904,7 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -1630,7 +1921,7 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -1647,7 +1938,7 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -1662,7 +1953,7 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -1681,7 +1972,7 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -1698,7 +1989,7 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -1713,7 +2004,7 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -1728,7 +2019,7 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
         <v>12</v>
       </c>
@@ -1745,7 +2036,7 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
         <v>13</v>
       </c>
@@ -1760,7 +2051,7 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
         <v>14</v>
       </c>
@@ -1777,7 +2068,7 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
         <v>15</v>
       </c>
@@ -1791,7 +2082,7 @@
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
         <v>16</v>
       </c>
@@ -1808,7 +2099,7 @@
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="5">
         <v>17</v>
       </c>
@@ -1827,7 +2118,7 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="5">
         <v>18</v>
       </c>
@@ -1849,7 +2140,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="5">
         <v>19</v>
       </c>
@@ -1885,14 +2176,14 @@
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="4.875" customWidth="1"/>
+    <col min="1" max="2" width="4.83203125" customWidth="1"/>
     <col min="3" max="3" width="8.5" customWidth="1"/>
-    <col min="4" max="4" width="16.625" customWidth="1"/>
+    <col min="4" max="4" width="16.58203125" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
     <col min="6" max="6" width="14.25" customWidth="1"/>
-    <col min="7" max="7" width="20.875" customWidth="1"/>
+    <col min="7" max="7" width="20.83203125" customWidth="1"/>
   </cols>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -1902,159 +2193,160 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13170299-07EF-445F-BE4E-77E46104F826}">
-  <dimension ref="A1:P32"/>
+  <dimension ref="A1:P41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="4.375" customWidth="1"/>
-    <col min="3" max="3" width="5.625" customWidth="1"/>
-    <col min="4" max="4" width="12.875" customWidth="1"/>
+    <col min="1" max="1" width="4.33203125" customWidth="1"/>
+    <col min="2" max="2" width="6" customWidth="1"/>
+    <col min="3" max="3" width="7.58203125" customWidth="1"/>
+    <col min="4" max="4" width="12.83203125" customWidth="1"/>
     <col min="5" max="5" width="4.75" customWidth="1"/>
-    <col min="6" max="6" width="15.125" customWidth="1"/>
-    <col min="7" max="7" width="39.375" customWidth="1"/>
-    <col min="8" max="8" width="14.625" customWidth="1"/>
+    <col min="6" max="6" width="15.08203125" customWidth="1"/>
+    <col min="7" max="7" width="39.33203125" customWidth="1"/>
+    <col min="8" max="8" width="14.58203125" customWidth="1"/>
     <col min="9" max="9" width="4.75" customWidth="1"/>
     <col min="10" max="10" width="11" customWidth="1"/>
-    <col min="11" max="11" width="6.125" customWidth="1"/>
+    <col min="11" max="11" width="6.08203125" customWidth="1"/>
     <col min="12" max="12" width="8.25" customWidth="1"/>
-    <col min="13" max="13" width="12.625" customWidth="1"/>
-    <col min="14" max="14" width="11.125" customWidth="1"/>
+    <col min="13" max="13" width="14.6640625" customWidth="1"/>
+    <col min="14" max="14" width="11.08203125" customWidth="1"/>
     <col min="15" max="16" width="8.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A1" s="36" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="37" t="s">
-        <v>104</v>
-      </c>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
       <c r="H1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I1" s="38" t="s">
-        <v>105</v>
-      </c>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
+      <c r="I1" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
       <c r="N1" s="10"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A2" s="36" t="s">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A2" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="37" t="s">
-        <v>106</v>
-      </c>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
       <c r="H2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="38"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
       <c r="N2" s="10"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A3" s="36" t="s">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A3" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
       <c r="H3" s="3"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="38"/>
-      <c r="M3" s="38"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="30"/>
       <c r="N3" s="10"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A4" s="36" t="s">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A4" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="37"/>
-      <c r="K4" s="37"/>
-      <c r="L4" s="37"/>
-      <c r="M4" s="37"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="29"/>
+      <c r="M4" s="29"/>
       <c r="N4" s="9"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A5" s="33"/>
-      <c r="B5" s="33"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="33"/>
-      <c r="J5" s="33"/>
-      <c r="K5" s="33"/>
-      <c r="L5" s="33"/>
-      <c r="M5" s="33"/>
-      <c r="N5" s="33"/>
-      <c r="O5" s="33"/>
-      <c r="P5" s="33"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A6" s="34" t="s">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A5" s="43"/>
+      <c r="B5" s="43"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="43"/>
+      <c r="H5" s="43"/>
+      <c r="I5" s="43"/>
+      <c r="J5" s="43"/>
+      <c r="K5" s="43"/>
+      <c r="L5" s="43"/>
+      <c r="M5" s="43"/>
+      <c r="N5" s="43"/>
+      <c r="O5" s="43"/>
+      <c r="P5" s="43"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A6" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="34"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="34"/>
-      <c r="J6" s="34"/>
-      <c r="K6" s="34"/>
-      <c r="L6" s="34"/>
-      <c r="M6" s="34"/>
-      <c r="N6" s="34"/>
-      <c r="O6" s="34"/>
-      <c r="P6" s="34"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="44"/>
+      <c r="J6" s="44"/>
+      <c r="K6" s="44"/>
+      <c r="L6" s="44"/>
+      <c r="M6" s="44"/>
+      <c r="N6" s="44"/>
+      <c r="O6" s="44"/>
+      <c r="P6" s="44"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>27</v>
       </c>
@@ -2104,7 +2396,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>1</v>
       </c>
@@ -2138,122 +2430,1076 @@
       <c r="O8" s="5"/>
       <c r="P8" s="1"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A9" s="17">
+        <v>2</v>
+      </c>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="E9" s="17"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="H9" s="18"/>
+      <c r="I9" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="18"/>
+      <c r="N9" s="18"/>
+      <c r="O9" s="17"/>
+      <c r="P9" s="19"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A10" s="17">
+        <v>3</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="E10" s="5"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="H10" s="6"/>
+      <c r="I10" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="1"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A11" s="17">
+        <v>4</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="E11" s="5"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="H11" s="6"/>
+      <c r="I11" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="K11" s="5">
+        <v>255</v>
+      </c>
+      <c r="L11" s="5"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="1"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A12" s="17">
+        <v>5</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="E12" s="5"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="H12" s="6"/>
+      <c r="I12" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="K12" s="5">
+        <v>255</v>
+      </c>
+      <c r="L12" s="5"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="1"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A13" s="17">
+        <v>6</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="5"/>
+      <c r="D13" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="E13" s="5"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="H13" s="6"/>
+      <c r="I13" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="1"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A14" s="17">
+        <v>7</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="5"/>
+      <c r="D14" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" s="5"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" s="6"/>
+      <c r="I14" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="O14" s="5"/>
+      <c r="P14" s="1"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A15" s="17">
+        <v>8</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="5"/>
+      <c r="D15" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="1"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A16" s="17">
+        <v>9</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="5"/>
+      <c r="D16" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J16" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="1"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A17" s="17">
+        <v>10</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="5"/>
+      <c r="D17" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J17" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="1"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A18" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="5"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J18" s="6"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="1"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A19" s="43"/>
+      <c r="B19" s="43"/>
+      <c r="C19" s="43"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="43"/>
+      <c r="F19" s="43"/>
+      <c r="G19" s="43"/>
+      <c r="H19" s="43"/>
+      <c r="I19" s="43"/>
+      <c r="J19" s="43"/>
+      <c r="K19" s="43"/>
+      <c r="L19" s="43"/>
+      <c r="M19" s="43"/>
+      <c r="N19" s="43"/>
+      <c r="O19" s="43"/>
+      <c r="P19" s="43"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A21" s="63" t="s">
+        <v>54</v>
+      </c>
+      <c r="B21" s="63"/>
+      <c r="C21" s="63"/>
+      <c r="D21" s="63"/>
+      <c r="E21" s="63"/>
+      <c r="F21" s="63"/>
+      <c r="G21" s="63"/>
+      <c r="H21" s="63"/>
+      <c r="I21" s="63"/>
+      <c r="J21" s="63"/>
+      <c r="K21" s="63"/>
+      <c r="L21" s="63"/>
+      <c r="M21" s="63"/>
+      <c r="N21" s="63"/>
+      <c r="O21" s="63"/>
+      <c r="P21" s="63"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A22" s="67">
+        <v>1</v>
+      </c>
+      <c r="B22" s="61" t="s">
+        <v>123</v>
+      </c>
+      <c r="C22" s="62"/>
+      <c r="D22" s="52" t="s">
+        <v>142</v>
+      </c>
+      <c r="E22" s="53"/>
+      <c r="F22" s="53"/>
+      <c r="G22" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="H22" s="52" t="s">
+        <v>149</v>
+      </c>
+      <c r="I22" s="53"/>
+      <c r="J22" s="54"/>
+      <c r="K22" s="37" t="s">
+        <v>125</v>
+      </c>
+      <c r="L22" s="39"/>
+      <c r="M22" s="49" t="s">
+        <v>114</v>
+      </c>
+      <c r="N22" s="50"/>
+      <c r="O22" s="50"/>
+      <c r="P22" s="51"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A23" s="68"/>
+      <c r="B23" s="61" t="s">
+        <v>126</v>
+      </c>
+      <c r="C23" s="62"/>
+      <c r="D23" s="52" t="s">
+        <v>141</v>
+      </c>
+      <c r="E23" s="53"/>
+      <c r="F23" s="53"/>
+      <c r="G23" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="H23" s="52" t="s">
+        <v>143</v>
+      </c>
+      <c r="I23" s="53"/>
+      <c r="J23" s="54"/>
+      <c r="K23" s="37" t="s">
+        <v>128</v>
+      </c>
+      <c r="L23" s="39"/>
+      <c r="M23" s="49" t="s">
+        <v>129</v>
+      </c>
+      <c r="N23" s="50"/>
+      <c r="O23" s="50"/>
+      <c r="P23" s="51"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A24" s="68"/>
+      <c r="B24" s="61" t="s">
+        <v>130</v>
+      </c>
+      <c r="C24" s="62"/>
+      <c r="D24" s="52" t="s">
+        <v>148</v>
+      </c>
+      <c r="E24" s="53"/>
+      <c r="F24" s="53"/>
+      <c r="G24" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="H24" s="53" t="s">
+        <v>150</v>
+      </c>
+      <c r="I24" s="53"/>
+      <c r="J24" s="54"/>
+      <c r="K24" s="21"/>
+      <c r="L24" s="22"/>
+      <c r="M24" s="49"/>
+      <c r="N24" s="50"/>
+      <c r="O24" s="50"/>
+      <c r="P24" s="51"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A25" s="68"/>
+      <c r="B25" s="61" t="s">
+        <v>132</v>
+      </c>
+      <c r="C25" s="62"/>
+      <c r="D25" s="52"/>
+      <c r="E25" s="53"/>
+      <c r="F25" s="53"/>
+      <c r="G25" s="53"/>
+      <c r="H25" s="53"/>
+      <c r="I25" s="53"/>
+      <c r="J25" s="54"/>
+      <c r="K25" s="37" t="s">
+        <v>133</v>
+      </c>
+      <c r="L25" s="39"/>
+      <c r="M25" s="49" t="s">
+        <v>147</v>
+      </c>
+      <c r="N25" s="50"/>
+      <c r="O25" s="50"/>
+      <c r="P25" s="51"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A26" s="68"/>
+      <c r="B26" s="64" t="s">
+        <v>134</v>
+      </c>
+      <c r="C26" s="65"/>
+      <c r="D26" s="65"/>
+      <c r="E26" s="65"/>
+      <c r="F26" s="65"/>
+      <c r="G26" s="65"/>
+      <c r="H26" s="65"/>
+      <c r="I26" s="65"/>
+      <c r="J26" s="66"/>
+      <c r="K26" s="64"/>
+      <c r="L26" s="66"/>
+      <c r="M26" s="64"/>
+      <c r="N26" s="65"/>
+      <c r="O26" s="65"/>
+      <c r="P26" s="66"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A27" s="68"/>
+      <c r="B27" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="C27" s="37" t="s">
+        <v>136</v>
+      </c>
+      <c r="D27" s="38"/>
+      <c r="E27" s="39"/>
+      <c r="F27" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="G27" s="37" t="s">
+        <v>138</v>
+      </c>
+      <c r="H27" s="39"/>
+      <c r="I27" s="37" t="s">
+        <v>139</v>
+      </c>
+      <c r="J27" s="39"/>
+      <c r="K27" s="40"/>
+      <c r="L27" s="41"/>
+      <c r="M27" s="40"/>
+      <c r="N27" s="42"/>
+      <c r="O27" s="42"/>
+      <c r="P27" s="41"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A28" s="68"/>
+      <c r="B28" s="25">
+        <v>1</v>
+      </c>
+      <c r="C28" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="D28" s="32"/>
+      <c r="E28" s="33"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="31" t="s">
+        <v>140</v>
+      </c>
+      <c r="H28" s="33"/>
+      <c r="I28" s="26"/>
+      <c r="J28" s="27"/>
+      <c r="K28" s="34"/>
+      <c r="L28" s="35"/>
+      <c r="M28" s="34"/>
+      <c r="N28" s="36"/>
+      <c r="O28" s="36"/>
+      <c r="P28" s="35"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A29" s="68"/>
+      <c r="B29" s="31"/>
+      <c r="C29" s="32"/>
+      <c r="D29" s="32"/>
+      <c r="E29" s="33"/>
+      <c r="F29" s="26"/>
+      <c r="G29" s="31"/>
+      <c r="H29" s="33"/>
+      <c r="I29" s="26"/>
+      <c r="J29" s="27"/>
+      <c r="K29" s="34"/>
+      <c r="L29" s="35"/>
+      <c r="M29" s="34"/>
+      <c r="N29" s="36"/>
+      <c r="O29" s="36"/>
+      <c r="P29" s="35"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A31" s="45" t="s">
+        <v>106</v>
+      </c>
+      <c r="B31" s="46"/>
+      <c r="C31" s="46"/>
+      <c r="D31" s="46"/>
+      <c r="E31" s="46"/>
+      <c r="F31" s="46"/>
+      <c r="G31" s="46"/>
+      <c r="H31" s="46"/>
+      <c r="I31" s="46"/>
+      <c r="J31" s="46"/>
+      <c r="K31" s="46"/>
+      <c r="L31" s="46"/>
+      <c r="M31" s="46"/>
+      <c r="N31" s="46"/>
+      <c r="O31" s="46"/>
+      <c r="P31" s="47"/>
+    </row>
+    <row r="32" spans="1:16" ht="29" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32" s="57" t="s">
+        <v>107</v>
+      </c>
+      <c r="C32" s="58"/>
+      <c r="D32" s="57" t="s">
+        <v>26</v>
+      </c>
+      <c r="E32" s="58"/>
+      <c r="F32" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="G32" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="H32" s="59" t="s">
+        <v>108</v>
+      </c>
+      <c r="I32" s="59"/>
+      <c r="J32" s="59"/>
+      <c r="K32" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="L32" s="60"/>
+      <c r="M32" s="60"/>
+      <c r="N32" s="60"/>
+      <c r="O32" s="60"/>
+      <c r="P32" s="58"/>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A33" s="15">
+        <v>1</v>
+      </c>
+      <c r="B33" s="48" t="s">
+        <v>110</v>
+      </c>
+      <c r="C33" s="48"/>
+      <c r="D33" s="48" t="s">
+        <v>111</v>
+      </c>
+      <c r="E33" s="48"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="49" t="s">
+        <v>112</v>
+      </c>
+      <c r="I33" s="50"/>
+      <c r="J33" s="51"/>
+      <c r="K33" s="52"/>
+      <c r="L33" s="53"/>
+      <c r="M33" s="53"/>
+      <c r="N33" s="53"/>
+      <c r="O33" s="53"/>
+      <c r="P33" s="54"/>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B40" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="C40" s="13"/>
+    </row>
+    <row r="41" spans="1:16" ht="108.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="55" t="s">
+        <v>105</v>
+      </c>
+      <c r="C41" s="56"/>
+      <c r="D41" s="56"/>
+      <c r="E41" s="56"/>
+      <c r="F41" s="56"/>
+      <c r="G41" s="56"/>
+      <c r="H41" s="56"/>
+      <c r="I41" s="56"/>
+      <c r="J41" s="56"/>
+      <c r="K41" s="56"/>
+      <c r="L41" s="56"/>
+      <c r="M41" s="56"/>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A8:A17">
+    <sortCondition ref="A8:A17"/>
+  </sortState>
+  <mergeCells count="60">
+    <mergeCell ref="A21:P21"/>
+    <mergeCell ref="B26:J26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="M26:P26"/>
+    <mergeCell ref="A22:A29"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="M22:P22"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="M24:P24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:J25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="M25:P25"/>
+    <mergeCell ref="M23:P23"/>
+    <mergeCell ref="B41:M41"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="H32:J32"/>
+    <mergeCell ref="K32:P32"/>
+    <mergeCell ref="A31:P31"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="H33:J33"/>
+    <mergeCell ref="K33:P33"/>
+    <mergeCell ref="A5:P5"/>
+    <mergeCell ref="A6:P6"/>
+    <mergeCell ref="A19:P19"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:M4"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="M29:P29"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="M27:P27"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="M28:P28"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB9BD2AF-77E3-4239-87E5-2E2284E734F1}">
+  <dimension ref="A1:P20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="30" t="s">
+        <v>114</v>
+      </c>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A2" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="29" t="s">
+        <v>151</v>
+      </c>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A3" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="30"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A4" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="29"/>
+      <c r="M4" s="29"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A5" s="43"/>
+      <c r="B5" s="43"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="43"/>
+      <c r="H5" s="43"/>
+      <c r="I5" s="43"/>
+      <c r="J5" s="43"/>
+      <c r="K5" s="43"/>
+      <c r="L5" s="43"/>
+      <c r="M5" s="43"/>
+      <c r="N5" s="43"/>
+      <c r="O5" s="43"/>
+      <c r="P5" s="43"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A6" s="44" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="44"/>
+      <c r="J6" s="44"/>
+      <c r="K6" s="44"/>
+      <c r="L6" s="44"/>
+      <c r="M6" s="44"/>
+      <c r="N6" s="44"/>
+      <c r="O6" s="44"/>
+      <c r="P6" s="44"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A8" s="5">
+        <v>1</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="H8" s="6"/>
+      <c r="I8" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="1"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>2</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="5"/>
+      <c r="C9" s="5" t="s">
+        <v>121</v>
+      </c>
       <c r="D9" s="6" t="s">
-        <v>96</v>
+        <v>115</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="6"/>
       <c r="G9" s="6" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="H9" s="6"/>
       <c r="I9" s="5" t="s">
         <v>40</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="K9" s="5"/>
+        <v>42</v>
+      </c>
+      <c r="K9" s="5">
+        <v>255</v>
+      </c>
       <c r="L9" s="5"/>
       <c r="M9" s="6"/>
       <c r="N9" s="6"/>
       <c r="O9" s="5"/>
       <c r="P9" s="1"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="6" t="s">
-        <v>97</v>
+        <v>45</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="6"/>
       <c r="G10" s="6" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="H10" s="6"/>
       <c r="I10" s="5" t="s">
         <v>40</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="K10" s="5">
-        <v>255</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="K10" s="5"/>
       <c r="L10" s="5"/>
       <c r="M10" s="6"/>
-      <c r="N10" s="6"/>
+      <c r="N10" s="6" t="b">
+        <v>0</v>
+      </c>
       <c r="O10" s="5"/>
       <c r="P10" s="1"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="E11" s="5"/>
+        <v>48</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>79</v>
+      </c>
       <c r="F11" s="6"/>
       <c r="G11" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="H11" s="6"/>
+        <v>49</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>77</v>
+      </c>
       <c r="I11" s="5" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="K11" s="5">
-        <v>255</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="K11" s="5"/>
       <c r="L11" s="5"/>
       <c r="M11" s="6"/>
       <c r="N11" s="6"/>
       <c r="O11" s="5"/>
       <c r="P11" s="1"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="E12" s="5"/>
+        <v>50</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>79</v>
+      </c>
       <c r="F12" s="6"/>
       <c r="G12" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="H12" s="6"/>
+        <v>51</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>76</v>
+      </c>
       <c r="I12" s="5" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
@@ -2262,25 +3508,29 @@
       <c r="O12" s="5"/>
       <c r="P12" s="1"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="E13" s="5"/>
+        <v>52</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>79</v>
+      </c>
       <c r="F13" s="6"/>
       <c r="G13" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H13" s="6"/>
+        <v>53</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>75</v>
+      </c>
       <c r="I13" s="5" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="J13" s="6" t="s">
         <v>47</v>
@@ -2288,39 +3538,27 @@
       <c r="K13" s="5"/>
       <c r="L13" s="5"/>
       <c r="M13" s="6"/>
-      <c r="N13" s="6" t="b">
-        <v>0</v>
-      </c>
+      <c r="N13" s="6"/>
       <c r="O13" s="5"/>
       <c r="P13" s="1"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A14" s="5">
-        <v>10</v>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
+        <v>21</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C14" s="5"/>
-      <c r="D14" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>79</v>
-      </c>
+      <c r="D14" s="6"/>
+      <c r="E14" s="5"/>
       <c r="F14" s="6"/>
-      <c r="G14" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>77</v>
-      </c>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
       <c r="I14" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="J14" s="6" t="s">
-        <v>44</v>
-      </c>
+      <c r="J14" s="6"/>
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
       <c r="M14" s="6"/>
@@ -2328,266 +3566,129 @@
       <c r="O14" s="5"/>
       <c r="P14" s="1"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A15" s="5">
-        <v>11</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="I15" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="J15" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="6"/>
-      <c r="N15" s="6"/>
-      <c r="O15" s="5"/>
-      <c r="P15" s="1"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A16" s="5">
-        <v>12</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="I16" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="J16" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="6"/>
-      <c r="N16" s="6"/>
-      <c r="O16" s="5"/>
-      <c r="P16" s="1"/>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A17" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="J17" s="6"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="6"/>
-      <c r="N17" s="6"/>
-      <c r="O17" s="5"/>
-      <c r="P17" s="1"/>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A18" s="33"/>
-      <c r="B18" s="33"/>
-      <c r="C18" s="33"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="33"/>
-      <c r="F18" s="33"/>
-      <c r="G18" s="33"/>
-      <c r="H18" s="33"/>
-      <c r="I18" s="33"/>
-      <c r="J18" s="33"/>
-      <c r="K18" s="33"/>
-      <c r="L18" s="33"/>
-      <c r="M18" s="33"/>
-      <c r="N18" s="33"/>
-      <c r="O18" s="33"/>
-      <c r="P18" s="33"/>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A20" s="35" t="s">
-        <v>54</v>
-      </c>
-      <c r="B20" s="35"/>
-      <c r="C20" s="35"/>
-      <c r="D20" s="35"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="35"/>
-      <c r="H20" s="35"/>
-      <c r="I20" s="35"/>
-      <c r="J20" s="35"/>
-      <c r="K20" s="35"/>
-      <c r="L20" s="35"/>
-      <c r="M20" s="35"/>
-      <c r="N20" s="35"/>
-      <c r="O20" s="35"/>
-      <c r="P20" s="35"/>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A22" s="23" t="s">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A15" s="43"/>
+      <c r="B15" s="43"/>
+      <c r="C15" s="43"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="43"/>
+      <c r="F15" s="43"/>
+      <c r="G15" s="43"/>
+      <c r="H15" s="43"/>
+      <c r="I15" s="43"/>
+      <c r="J15" s="43"/>
+      <c r="K15" s="43"/>
+      <c r="L15" s="43"/>
+      <c r="M15" s="43"/>
+      <c r="N15" s="43"/>
+      <c r="O15" s="43"/>
+      <c r="P15" s="43"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A18" s="45" t="s">
+        <v>106</v>
+      </c>
+      <c r="B18" s="46"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="46"/>
+      <c r="H18" s="46"/>
+      <c r="I18" s="46"/>
+      <c r="J18" s="46"/>
+      <c r="K18" s="46"/>
+      <c r="L18" s="46"/>
+      <c r="M18" s="46"/>
+      <c r="N18" s="46"/>
+      <c r="O18" s="46"/>
+      <c r="P18" s="47"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A19" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="57" t="s">
+        <v>107</v>
+      </c>
+      <c r="C19" s="58"/>
+      <c r="D19" s="57" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19" s="58"/>
+      <c r="F19" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="G19" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="H19" s="57" t="s">
+        <v>108</v>
+      </c>
+      <c r="I19" s="60"/>
+      <c r="J19" s="58"/>
+      <c r="K19" s="57" t="s">
         <v>109</v>
       </c>
-      <c r="B22" s="24"/>
-      <c r="C22" s="24"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="24"/>
-      <c r="H22" s="24"/>
-      <c r="I22" s="24"/>
-      <c r="J22" s="24"/>
-      <c r="K22" s="24"/>
-      <c r="L22" s="24"/>
-      <c r="M22" s="24"/>
-      <c r="N22" s="24"/>
-      <c r="O22" s="24"/>
-      <c r="P22" s="25"/>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A23" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B23" s="19" t="s">
-        <v>110</v>
-      </c>
-      <c r="C23" s="20"/>
-      <c r="D23" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="E23" s="20"/>
-      <c r="F23" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="G23" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="H23" s="21" t="s">
-        <v>111</v>
-      </c>
-      <c r="I23" s="21"/>
-      <c r="J23" s="21"/>
-      <c r="K23" s="19" t="s">
-        <v>112</v>
-      </c>
-      <c r="L23" s="22"/>
-      <c r="M23" s="22"/>
-      <c r="N23" s="22"/>
-      <c r="O23" s="22"/>
-      <c r="P23" s="20"/>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A24" s="15">
+      <c r="L19" s="60"/>
+      <c r="M19" s="60"/>
+      <c r="N19" s="60"/>
+      <c r="O19" s="60"/>
+      <c r="P19" s="58"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A20" s="15">
         <v>1</v>
       </c>
-      <c r="B24" s="26" t="s">
-        <v>113</v>
-      </c>
-      <c r="C24" s="26"/>
-      <c r="D24" s="26" t="s">
-        <v>114</v>
-      </c>
-      <c r="E24" s="26"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="27" t="s">
-        <v>115</v>
-      </c>
-      <c r="I24" s="28"/>
-      <c r="J24" s="29"/>
-      <c r="K24" s="30"/>
-      <c r="L24" s="31"/>
-      <c r="M24" s="31"/>
-      <c r="N24" s="31"/>
-      <c r="O24" s="31"/>
-      <c r="P24" s="32"/>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B31" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="C31" s="13"/>
-    </row>
-    <row r="32" spans="1:16" ht="153.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="18"/>
-      <c r="G32" s="18"/>
-      <c r="H32" s="18"/>
-      <c r="I32" s="18"/>
-      <c r="J32" s="18"/>
-      <c r="K32" s="18"/>
-      <c r="L32" s="18"/>
-      <c r="M32" s="18"/>
+      <c r="B20" s="52" t="s">
+        <v>118</v>
+      </c>
+      <c r="C20" s="54"/>
+      <c r="D20" s="52" t="s">
+        <v>119</v>
+      </c>
+      <c r="E20" s="54"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="49" t="s">
+        <v>120</v>
+      </c>
+      <c r="I20" s="50"/>
+      <c r="J20" s="51"/>
+      <c r="K20" s="52"/>
+      <c r="L20" s="53"/>
+      <c r="M20" s="53"/>
+      <c r="N20" s="53"/>
+      <c r="O20" s="53"/>
+      <c r="P20" s="54"/>
     </row>
   </sheetData>
-  <mergeCells count="25">
+  <mergeCells count="23">
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="K20:P20"/>
+    <mergeCell ref="A6:P6"/>
+    <mergeCell ref="A15:P15"/>
+    <mergeCell ref="A18:P18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="K19:P19"/>
+    <mergeCell ref="A5:P5"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:G1"/>
     <mergeCell ref="I1:M1"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="D2:G2"/>
     <mergeCell ref="I2:M2"/>
-    <mergeCell ref="A5:P5"/>
-    <mergeCell ref="A6:P6"/>
-    <mergeCell ref="A18:P18"/>
-    <mergeCell ref="A20:P20"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="D3:G3"/>
     <mergeCell ref="I3:M3"/>
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="D4:M4"/>
-    <mergeCell ref="A22:P22"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="K24:P24"/>
-    <mergeCell ref="B32:M32"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="K23:P23"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/model/network-proxy.orm.xlsx
+++ b/model/network-proxy.orm.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\IdeaProjects\internal-network-proxy\model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A2573B3-6E33-4331-9008-D7F5E85ABE9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B77856F7-8B8D-42B8-9B7E-4593C385BD75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="4" xr2:uid="{392982CA-C4D8-434C-9678-96E43A892558}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="3" xr2:uid="{392982CA-C4D8-434C-9678-96E43A892558}"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="167">
   <si>
     <t>序号</t>
   </si>
@@ -603,6 +603,66 @@
   </si>
   <si>
     <t>客户端</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>值类型</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>中文名</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>英文名</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>字典项</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>值</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>代码</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>proxy/protocol-type</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Protocol Type</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>协议类型</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>tcp</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>http</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TCP</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>HTTP</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -760,7 +820,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -1029,6 +1089,19 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1041,7 +1114,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1126,6 +1199,93 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1153,15 +1313,9 @@
     <xf numFmtId="0" fontId="9" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1171,82 +1325,40 @@
     <xf numFmtId="0" fontId="9" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2170,10 +2282,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB87FD9A-92FC-455F-BF98-C5D409248A5D}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2185,7 +2297,150 @@
     <col min="6" max="6" width="14.25" customWidth="1"/>
     <col min="7" max="7" width="20.83203125" customWidth="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="33">
+        <v>1</v>
+      </c>
+      <c r="B1" s="70" t="s">
+        <v>116</v>
+      </c>
+      <c r="C1" s="71"/>
+      <c r="D1" s="37" t="s">
+        <v>160</v>
+      </c>
+      <c r="E1" s="39"/>
+      <c r="F1" s="72" t="s">
+        <v>152</v>
+      </c>
+      <c r="G1" s="28" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="34"/>
+      <c r="B2" s="70" t="s">
+        <v>154</v>
+      </c>
+      <c r="C2" s="71"/>
+      <c r="D2" s="37" t="s">
+        <v>162</v>
+      </c>
+      <c r="E2" s="39"/>
+      <c r="F2" s="72" t="s">
+        <v>155</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="34"/>
+      <c r="B3" s="70" t="s">
+        <v>156</v>
+      </c>
+      <c r="C3" s="71"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="39"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="34"/>
+      <c r="B4" s="73" t="s">
+        <v>157</v>
+      </c>
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="75"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="34"/>
+      <c r="B5" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="76" t="s">
+        <v>158</v>
+      </c>
+      <c r="D5" s="76" t="s">
+        <v>116</v>
+      </c>
+      <c r="E5" s="76" t="s">
+        <v>159</v>
+      </c>
+      <c r="F5" s="76" t="s">
+        <v>155</v>
+      </c>
+      <c r="G5" s="76" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="34"/>
+      <c r="B6" s="17">
+        <v>1</v>
+      </c>
+      <c r="C6" s="17">
+        <v>0</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="34"/>
+      <c r="B7" s="17">
+        <v>2</v>
+      </c>
+      <c r="C7" s="17">
+        <v>1</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="34"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="77"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="78"/>
+      <c r="B9" s="79"/>
+      <c r="C9" s="80"/>
+      <c r="D9" s="80"/>
+      <c r="E9" s="80"/>
+      <c r="F9" s="80"/>
+      <c r="G9" s="81"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A1:A9"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B9:G9"/>
+  </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2195,8 +2450,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13170299-07EF-445F-BE4E-77E46104F826}">
   <dimension ref="A1:P41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M7" sqref="M1:M1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2213,138 +2468,138 @@
     <col min="10" max="10" width="11" customWidth="1"/>
     <col min="11" max="11" width="6.08203125" customWidth="1"/>
     <col min="12" max="12" width="8.25" customWidth="1"/>
-    <col min="13" max="13" width="14.6640625" customWidth="1"/>
+    <col min="13" max="13" width="18.08203125" customWidth="1"/>
     <col min="14" max="14" width="11.08203125" customWidth="1"/>
     <col min="15" max="16" width="8.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="29" t="s">
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="58" t="s">
         <v>145</v>
       </c>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
       <c r="H1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I1" s="30" t="s">
+      <c r="I1" s="59" t="s">
         <v>146</v>
       </c>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
+      <c r="M1" s="59"/>
       <c r="N1" s="10"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="29" t="s">
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="58" t="s">
         <v>148</v>
       </c>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
       <c r="H2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="59"/>
       <c r="N2" s="10"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
+      <c r="B3" s="57"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
       <c r="H3" s="3"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30"/>
-      <c r="M3" s="30"/>
+      <c r="I3" s="59"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="59"/>
+      <c r="L3" s="59"/>
+      <c r="M3" s="59"/>
       <c r="N3" s="10"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="57" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="29"/>
-      <c r="L4" s="29"/>
-      <c r="M4" s="29"/>
+      <c r="B4" s="57"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="58"/>
+      <c r="H4" s="58"/>
+      <c r="I4" s="58"/>
+      <c r="J4" s="58"/>
+      <c r="K4" s="58"/>
+      <c r="L4" s="58"/>
+      <c r="M4" s="58"/>
       <c r="N4" s="9"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="43"/>
-      <c r="B5" s="43"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="43"/>
-      <c r="H5" s="43"/>
-      <c r="I5" s="43"/>
-      <c r="J5" s="43"/>
-      <c r="K5" s="43"/>
-      <c r="L5" s="43"/>
-      <c r="M5" s="43"/>
-      <c r="N5" s="43"/>
-      <c r="O5" s="43"/>
-      <c r="P5" s="43"/>
+      <c r="A5" s="55"/>
+      <c r="B5" s="55"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="55"/>
+      <c r="I5" s="55"/>
+      <c r="J5" s="55"/>
+      <c r="K5" s="55"/>
+      <c r="L5" s="55"/>
+      <c r="M5" s="55"/>
+      <c r="N5" s="55"/>
+      <c r="O5" s="55"/>
+      <c r="P5" s="55"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="44" t="s">
+      <c r="A6" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="44"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="44"/>
-      <c r="G6" s="44"/>
-      <c r="H6" s="44"/>
-      <c r="I6" s="44"/>
-      <c r="J6" s="44"/>
-      <c r="K6" s="44"/>
-      <c r="L6" s="44"/>
-      <c r="M6" s="44"/>
-      <c r="N6" s="44"/>
-      <c r="O6" s="44"/>
-      <c r="P6" s="44"/>
+      <c r="B6" s="56"/>
+      <c r="C6" s="56"/>
+      <c r="D6" s="56"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="56"/>
+      <c r="G6" s="56"/>
+      <c r="H6" s="56"/>
+      <c r="I6" s="56"/>
+      <c r="J6" s="56"/>
+      <c r="K6" s="56"/>
+      <c r="L6" s="56"/>
+      <c r="M6" s="56"/>
+      <c r="N6" s="56"/>
+      <c r="O6" s="56"/>
+      <c r="P6" s="56"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
@@ -2515,7 +2770,9 @@
         <v>255</v>
       </c>
       <c r="L11" s="5"/>
-      <c r="M11" s="6"/>
+      <c r="M11" s="6" t="s">
+        <v>160</v>
+      </c>
       <c r="N11" s="6"/>
       <c r="O11" s="5"/>
       <c r="P11" s="1"/>
@@ -2741,322 +2998,322 @@
       <c r="P18" s="1"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A19" s="43"/>
-      <c r="B19" s="43"/>
-      <c r="C19" s="43"/>
-      <c r="D19" s="43"/>
-      <c r="E19" s="43"/>
-      <c r="F19" s="43"/>
-      <c r="G19" s="43"/>
-      <c r="H19" s="43"/>
-      <c r="I19" s="43"/>
-      <c r="J19" s="43"/>
-      <c r="K19" s="43"/>
-      <c r="L19" s="43"/>
-      <c r="M19" s="43"/>
-      <c r="N19" s="43"/>
-      <c r="O19" s="43"/>
-      <c r="P19" s="43"/>
+      <c r="A19" s="55"/>
+      <c r="B19" s="55"/>
+      <c r="C19" s="55"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="55"/>
+      <c r="F19" s="55"/>
+      <c r="G19" s="55"/>
+      <c r="H19" s="55"/>
+      <c r="I19" s="55"/>
+      <c r="J19" s="55"/>
+      <c r="K19" s="55"/>
+      <c r="L19" s="55"/>
+      <c r="M19" s="55"/>
+      <c r="N19" s="55"/>
+      <c r="O19" s="55"/>
+      <c r="P19" s="55"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A21" s="63" t="s">
+      <c r="A21" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="B21" s="63"/>
-      <c r="C21" s="63"/>
-      <c r="D21" s="63"/>
-      <c r="E21" s="63"/>
-      <c r="F21" s="63"/>
-      <c r="G21" s="63"/>
-      <c r="H21" s="63"/>
-      <c r="I21" s="63"/>
-      <c r="J21" s="63"/>
-      <c r="K21" s="63"/>
-      <c r="L21" s="63"/>
-      <c r="M21" s="63"/>
-      <c r="N21" s="63"/>
-      <c r="O21" s="63"/>
-      <c r="P21" s="63"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="29"/>
+      <c r="I21" s="29"/>
+      <c r="J21" s="29"/>
+      <c r="K21" s="29"/>
+      <c r="L21" s="29"/>
+      <c r="M21" s="29"/>
+      <c r="N21" s="29"/>
+      <c r="O21" s="29"/>
+      <c r="P21" s="29"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A22" s="67">
+      <c r="A22" s="33">
         <v>1</v>
       </c>
-      <c r="B22" s="61" t="s">
+      <c r="B22" s="35" t="s">
         <v>123</v>
       </c>
-      <c r="C22" s="62"/>
-      <c r="D22" s="52" t="s">
+      <c r="C22" s="36"/>
+      <c r="D22" s="37" t="s">
         <v>142</v>
       </c>
-      <c r="E22" s="53"/>
-      <c r="F22" s="53"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="38"/>
       <c r="G22" s="20" t="s">
         <v>124</v>
       </c>
-      <c r="H22" s="52" t="s">
+      <c r="H22" s="37" t="s">
         <v>149</v>
       </c>
-      <c r="I22" s="53"/>
-      <c r="J22" s="54"/>
-      <c r="K22" s="37" t="s">
+      <c r="I22" s="38"/>
+      <c r="J22" s="39"/>
+      <c r="K22" s="40" t="s">
         <v>125</v>
       </c>
-      <c r="L22" s="39"/>
-      <c r="M22" s="49" t="s">
+      <c r="L22" s="41"/>
+      <c r="M22" s="42" t="s">
         <v>114</v>
       </c>
-      <c r="N22" s="50"/>
-      <c r="O22" s="50"/>
-      <c r="P22" s="51"/>
+      <c r="N22" s="43"/>
+      <c r="O22" s="43"/>
+      <c r="P22" s="44"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A23" s="68"/>
-      <c r="B23" s="61" t="s">
+      <c r="A23" s="34"/>
+      <c r="B23" s="35" t="s">
         <v>126</v>
       </c>
-      <c r="C23" s="62"/>
-      <c r="D23" s="52" t="s">
+      <c r="C23" s="36"/>
+      <c r="D23" s="37" t="s">
         <v>141</v>
       </c>
-      <c r="E23" s="53"/>
-      <c r="F23" s="53"/>
+      <c r="E23" s="38"/>
+      <c r="F23" s="38"/>
       <c r="G23" s="20" t="s">
         <v>127</v>
       </c>
-      <c r="H23" s="52" t="s">
+      <c r="H23" s="37" t="s">
         <v>143</v>
       </c>
-      <c r="I23" s="53"/>
-      <c r="J23" s="54"/>
-      <c r="K23" s="37" t="s">
+      <c r="I23" s="38"/>
+      <c r="J23" s="39"/>
+      <c r="K23" s="40" t="s">
         <v>128</v>
       </c>
-      <c r="L23" s="39"/>
-      <c r="M23" s="49" t="s">
+      <c r="L23" s="41"/>
+      <c r="M23" s="42" t="s">
         <v>129</v>
       </c>
-      <c r="N23" s="50"/>
-      <c r="O23" s="50"/>
-      <c r="P23" s="51"/>
+      <c r="N23" s="43"/>
+      <c r="O23" s="43"/>
+      <c r="P23" s="44"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A24" s="68"/>
-      <c r="B24" s="61" t="s">
+      <c r="A24" s="34"/>
+      <c r="B24" s="35" t="s">
         <v>130</v>
       </c>
-      <c r="C24" s="62"/>
-      <c r="D24" s="52" t="s">
+      <c r="C24" s="36"/>
+      <c r="D24" s="37" t="s">
         <v>148</v>
       </c>
-      <c r="E24" s="53"/>
-      <c r="F24" s="53"/>
+      <c r="E24" s="38"/>
+      <c r="F24" s="38"/>
       <c r="G24" s="23" t="s">
         <v>131</v>
       </c>
-      <c r="H24" s="53" t="s">
+      <c r="H24" s="38" t="s">
         <v>150</v>
       </c>
-      <c r="I24" s="53"/>
-      <c r="J24" s="54"/>
+      <c r="I24" s="38"/>
+      <c r="J24" s="39"/>
       <c r="K24" s="21"/>
       <c r="L24" s="22"/>
-      <c r="M24" s="49"/>
-      <c r="N24" s="50"/>
-      <c r="O24" s="50"/>
-      <c r="P24" s="51"/>
+      <c r="M24" s="42"/>
+      <c r="N24" s="43"/>
+      <c r="O24" s="43"/>
+      <c r="P24" s="44"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A25" s="68"/>
-      <c r="B25" s="61" t="s">
+      <c r="A25" s="34"/>
+      <c r="B25" s="35" t="s">
         <v>132</v>
       </c>
-      <c r="C25" s="62"/>
-      <c r="D25" s="52"/>
-      <c r="E25" s="53"/>
-      <c r="F25" s="53"/>
-      <c r="G25" s="53"/>
-      <c r="H25" s="53"/>
-      <c r="I25" s="53"/>
-      <c r="J25" s="54"/>
-      <c r="K25" s="37" t="s">
+      <c r="C25" s="36"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="38"/>
+      <c r="G25" s="38"/>
+      <c r="H25" s="38"/>
+      <c r="I25" s="38"/>
+      <c r="J25" s="39"/>
+      <c r="K25" s="40" t="s">
         <v>133</v>
       </c>
-      <c r="L25" s="39"/>
-      <c r="M25" s="49" t="s">
+      <c r="L25" s="41"/>
+      <c r="M25" s="42" t="s">
         <v>147</v>
       </c>
-      <c r="N25" s="50"/>
-      <c r="O25" s="50"/>
-      <c r="P25" s="51"/>
+      <c r="N25" s="43"/>
+      <c r="O25" s="43"/>
+      <c r="P25" s="44"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A26" s="68"/>
-      <c r="B26" s="64" t="s">
+      <c r="A26" s="34"/>
+      <c r="B26" s="30" t="s">
         <v>134</v>
       </c>
-      <c r="C26" s="65"/>
-      <c r="D26" s="65"/>
-      <c r="E26" s="65"/>
-      <c r="F26" s="65"/>
-      <c r="G26" s="65"/>
-      <c r="H26" s="65"/>
-      <c r="I26" s="65"/>
-      <c r="J26" s="66"/>
-      <c r="K26" s="64"/>
-      <c r="L26" s="66"/>
-      <c r="M26" s="64"/>
-      <c r="N26" s="65"/>
-      <c r="O26" s="65"/>
-      <c r="P26" s="66"/>
+      <c r="C26" s="31"/>
+      <c r="D26" s="31"/>
+      <c r="E26" s="31"/>
+      <c r="F26" s="31"/>
+      <c r="G26" s="31"/>
+      <c r="H26" s="31"/>
+      <c r="I26" s="31"/>
+      <c r="J26" s="32"/>
+      <c r="K26" s="30"/>
+      <c r="L26" s="32"/>
+      <c r="M26" s="30"/>
+      <c r="N26" s="31"/>
+      <c r="O26" s="31"/>
+      <c r="P26" s="32"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A27" s="68"/>
+      <c r="A27" s="34"/>
       <c r="B27" s="24" t="s">
         <v>135</v>
       </c>
-      <c r="C27" s="37" t="s">
+      <c r="C27" s="40" t="s">
         <v>136</v>
       </c>
-      <c r="D27" s="38"/>
-      <c r="E27" s="39"/>
+      <c r="D27" s="66"/>
+      <c r="E27" s="41"/>
       <c r="F27" s="21" t="s">
         <v>137</v>
       </c>
-      <c r="G27" s="37" t="s">
+      <c r="G27" s="40" t="s">
         <v>138</v>
       </c>
-      <c r="H27" s="39"/>
-      <c r="I27" s="37" t="s">
+      <c r="H27" s="41"/>
+      <c r="I27" s="40" t="s">
         <v>139</v>
       </c>
-      <c r="J27" s="39"/>
-      <c r="K27" s="40"/>
-      <c r="L27" s="41"/>
-      <c r="M27" s="40"/>
-      <c r="N27" s="42"/>
-      <c r="O27" s="42"/>
-      <c r="P27" s="41"/>
+      <c r="J27" s="41"/>
+      <c r="K27" s="67"/>
+      <c r="L27" s="68"/>
+      <c r="M27" s="67"/>
+      <c r="N27" s="69"/>
+      <c r="O27" s="69"/>
+      <c r="P27" s="68"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A28" s="68"/>
+      <c r="A28" s="34"/>
       <c r="B28" s="25">
         <v>1</v>
       </c>
-      <c r="C28" s="31" t="s">
+      <c r="C28" s="60" t="s">
         <v>144</v>
       </c>
-      <c r="D28" s="32"/>
-      <c r="E28" s="33"/>
+      <c r="D28" s="61"/>
+      <c r="E28" s="62"/>
       <c r="F28" s="26"/>
-      <c r="G28" s="31" t="s">
+      <c r="G28" s="60" t="s">
         <v>140</v>
       </c>
-      <c r="H28" s="33"/>
+      <c r="H28" s="62"/>
       <c r="I28" s="26"/>
       <c r="J28" s="27"/>
-      <c r="K28" s="34"/>
-      <c r="L28" s="35"/>
-      <c r="M28" s="34"/>
-      <c r="N28" s="36"/>
-      <c r="O28" s="36"/>
-      <c r="P28" s="35"/>
+      <c r="K28" s="63"/>
+      <c r="L28" s="64"/>
+      <c r="M28" s="63"/>
+      <c r="N28" s="65"/>
+      <c r="O28" s="65"/>
+      <c r="P28" s="64"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A29" s="68"/>
-      <c r="B29" s="31"/>
-      <c r="C29" s="32"/>
-      <c r="D29" s="32"/>
-      <c r="E29" s="33"/>
+      <c r="A29" s="34"/>
+      <c r="B29" s="60"/>
+      <c r="C29" s="61"/>
+      <c r="D29" s="61"/>
+      <c r="E29" s="62"/>
       <c r="F29" s="26"/>
-      <c r="G29" s="31"/>
-      <c r="H29" s="33"/>
+      <c r="G29" s="60"/>
+      <c r="H29" s="62"/>
       <c r="I29" s="26"/>
       <c r="J29" s="27"/>
-      <c r="K29" s="34"/>
-      <c r="L29" s="35"/>
-      <c r="M29" s="34"/>
-      <c r="N29" s="36"/>
-      <c r="O29" s="36"/>
-      <c r="P29" s="35"/>
+      <c r="K29" s="63"/>
+      <c r="L29" s="64"/>
+      <c r="M29" s="63"/>
+      <c r="N29" s="65"/>
+      <c r="O29" s="65"/>
+      <c r="P29" s="64"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A31" s="45" t="s">
+      <c r="A31" s="51" t="s">
         <v>106</v>
       </c>
-      <c r="B31" s="46"/>
-      <c r="C31" s="46"/>
-      <c r="D31" s="46"/>
-      <c r="E31" s="46"/>
-      <c r="F31" s="46"/>
-      <c r="G31" s="46"/>
-      <c r="H31" s="46"/>
-      <c r="I31" s="46"/>
-      <c r="J31" s="46"/>
-      <c r="K31" s="46"/>
-      <c r="L31" s="46"/>
-      <c r="M31" s="46"/>
-      <c r="N31" s="46"/>
-      <c r="O31" s="46"/>
-      <c r="P31" s="47"/>
+      <c r="B31" s="52"/>
+      <c r="C31" s="52"/>
+      <c r="D31" s="52"/>
+      <c r="E31" s="52"/>
+      <c r="F31" s="52"/>
+      <c r="G31" s="52"/>
+      <c r="H31" s="52"/>
+      <c r="I31" s="52"/>
+      <c r="J31" s="52"/>
+      <c r="K31" s="52"/>
+      <c r="L31" s="52"/>
+      <c r="M31" s="52"/>
+      <c r="N31" s="52"/>
+      <c r="O31" s="52"/>
+      <c r="P31" s="53"/>
     </row>
     <row r="32" spans="1:16" ht="29" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B32" s="57" t="s">
+      <c r="B32" s="47" t="s">
         <v>107</v>
       </c>
-      <c r="C32" s="58"/>
-      <c r="D32" s="57" t="s">
+      <c r="C32" s="48"/>
+      <c r="D32" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="E32" s="58"/>
+      <c r="E32" s="48"/>
       <c r="F32" s="14" t="s">
         <v>2</v>
       </c>
       <c r="G32" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="H32" s="59" t="s">
+      <c r="H32" s="49" t="s">
         <v>108</v>
       </c>
-      <c r="I32" s="59"/>
-      <c r="J32" s="59"/>
-      <c r="K32" s="57" t="s">
+      <c r="I32" s="49"/>
+      <c r="J32" s="49"/>
+      <c r="K32" s="47" t="s">
         <v>109</v>
       </c>
-      <c r="L32" s="60"/>
-      <c r="M32" s="60"/>
-      <c r="N32" s="60"/>
-      <c r="O32" s="60"/>
-      <c r="P32" s="58"/>
+      <c r="L32" s="50"/>
+      <c r="M32" s="50"/>
+      <c r="N32" s="50"/>
+      <c r="O32" s="50"/>
+      <c r="P32" s="48"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33" s="15">
         <v>1</v>
       </c>
-      <c r="B33" s="48" t="s">
+      <c r="B33" s="54" t="s">
         <v>110</v>
       </c>
-      <c r="C33" s="48"/>
-      <c r="D33" s="48" t="s">
+      <c r="C33" s="54"/>
+      <c r="D33" s="54" t="s">
         <v>111</v>
       </c>
-      <c r="E33" s="48"/>
+      <c r="E33" s="54"/>
       <c r="F33" s="16"/>
       <c r="G33" s="16"/>
-      <c r="H33" s="49" t="s">
+      <c r="H33" s="42" t="s">
         <v>112</v>
       </c>
-      <c r="I33" s="50"/>
-      <c r="J33" s="51"/>
-      <c r="K33" s="52"/>
-      <c r="L33" s="53"/>
-      <c r="M33" s="53"/>
-      <c r="N33" s="53"/>
-      <c r="O33" s="53"/>
-      <c r="P33" s="54"/>
+      <c r="I33" s="43"/>
+      <c r="J33" s="44"/>
+      <c r="K33" s="37"/>
+      <c r="L33" s="38"/>
+      <c r="M33" s="38"/>
+      <c r="N33" s="38"/>
+      <c r="O33" s="38"/>
+      <c r="P33" s="39"/>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B40" s="13" t="s">
@@ -3065,26 +3322,70 @@
       <c r="C40" s="13"/>
     </row>
     <row r="41" spans="1:16" ht="108.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="55" t="s">
+      <c r="B41" s="45" t="s">
         <v>105</v>
       </c>
-      <c r="C41" s="56"/>
-      <c r="D41" s="56"/>
-      <c r="E41" s="56"/>
-      <c r="F41" s="56"/>
-      <c r="G41" s="56"/>
-      <c r="H41" s="56"/>
-      <c r="I41" s="56"/>
-      <c r="J41" s="56"/>
-      <c r="K41" s="56"/>
-      <c r="L41" s="56"/>
-      <c r="M41" s="56"/>
+      <c r="C41" s="46"/>
+      <c r="D41" s="46"/>
+      <c r="E41" s="46"/>
+      <c r="F41" s="46"/>
+      <c r="G41" s="46"/>
+      <c r="H41" s="46"/>
+      <c r="I41" s="46"/>
+      <c r="J41" s="46"/>
+      <c r="K41" s="46"/>
+      <c r="L41" s="46"/>
+      <c r="M41" s="46"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A8:A17">
     <sortCondition ref="A8:A17"/>
   </sortState>
   <mergeCells count="60">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="M29:P29"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="M27:P27"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="M28:P28"/>
+    <mergeCell ref="A5:P5"/>
+    <mergeCell ref="A6:P6"/>
+    <mergeCell ref="A19:P19"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:M4"/>
+    <mergeCell ref="A31:P31"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="H33:J33"/>
+    <mergeCell ref="K33:P33"/>
+    <mergeCell ref="B41:M41"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="H32:J32"/>
+    <mergeCell ref="K32:P32"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="M24:P24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:J25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="M25:P25"/>
+    <mergeCell ref="M23:P23"/>
     <mergeCell ref="A21:P21"/>
     <mergeCell ref="B26:J26"/>
     <mergeCell ref="K26:L26"/>
@@ -3101,50 +3402,6 @@
     <mergeCell ref="H24:J24"/>
     <mergeCell ref="K22:L22"/>
     <mergeCell ref="M22:P22"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="M24:P24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:J25"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="M25:P25"/>
-    <mergeCell ref="M23:P23"/>
-    <mergeCell ref="B41:M41"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="H32:J32"/>
-    <mergeCell ref="K32:P32"/>
-    <mergeCell ref="A31:P31"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="H33:J33"/>
-    <mergeCell ref="K33:P33"/>
-    <mergeCell ref="A5:P5"/>
-    <mergeCell ref="A6:P6"/>
-    <mergeCell ref="A19:P19"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:M4"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="M29:P29"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="M27:P27"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="M28:P28"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3163,132 +3420,132 @@
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="29" t="s">
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="58" t="s">
         <v>113</v>
       </c>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
       <c r="H1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I1" s="30" t="s">
+      <c r="I1" s="59" t="s">
         <v>114</v>
       </c>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
+      <c r="M1" s="59"/>
       <c r="N1" s="10"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="29" t="s">
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="58" t="s">
         <v>151</v>
       </c>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
       <c r="H2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="59"/>
       <c r="N2" s="10"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
+      <c r="B3" s="57"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
       <c r="H3" s="3"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30"/>
-      <c r="M3" s="30"/>
+      <c r="I3" s="59"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="59"/>
+      <c r="L3" s="59"/>
+      <c r="M3" s="59"/>
       <c r="N3" s="10"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="57" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="29"/>
-      <c r="L4" s="29"/>
-      <c r="M4" s="29"/>
+      <c r="B4" s="57"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="58"/>
+      <c r="H4" s="58"/>
+      <c r="I4" s="58"/>
+      <c r="J4" s="58"/>
+      <c r="K4" s="58"/>
+      <c r="L4" s="58"/>
+      <c r="M4" s="58"/>
       <c r="N4" s="9"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="43"/>
-      <c r="B5" s="43"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="43"/>
-      <c r="H5" s="43"/>
-      <c r="I5" s="43"/>
-      <c r="J5" s="43"/>
-      <c r="K5" s="43"/>
-      <c r="L5" s="43"/>
-      <c r="M5" s="43"/>
-      <c r="N5" s="43"/>
-      <c r="O5" s="43"/>
-      <c r="P5" s="43"/>
+      <c r="A5" s="55"/>
+      <c r="B5" s="55"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="55"/>
+      <c r="I5" s="55"/>
+      <c r="J5" s="55"/>
+      <c r="K5" s="55"/>
+      <c r="L5" s="55"/>
+      <c r="M5" s="55"/>
+      <c r="N5" s="55"/>
+      <c r="O5" s="55"/>
+      <c r="P5" s="55"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="44" t="s">
+      <c r="A6" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="44"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="44"/>
-      <c r="G6" s="44"/>
-      <c r="H6" s="44"/>
-      <c r="I6" s="44"/>
-      <c r="J6" s="44"/>
-      <c r="K6" s="44"/>
-      <c r="L6" s="44"/>
-      <c r="M6" s="44"/>
-      <c r="N6" s="44"/>
-      <c r="O6" s="44"/>
-      <c r="P6" s="44"/>
+      <c r="B6" s="56"/>
+      <c r="C6" s="56"/>
+      <c r="D6" s="56"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="56"/>
+      <c r="G6" s="56"/>
+      <c r="H6" s="56"/>
+      <c r="I6" s="56"/>
+      <c r="J6" s="56"/>
+      <c r="K6" s="56"/>
+      <c r="L6" s="56"/>
+      <c r="M6" s="56"/>
+      <c r="N6" s="56"/>
+      <c r="O6" s="56"/>
+      <c r="P6" s="56"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
@@ -3567,114 +3824,103 @@
       <c r="P14" s="1"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A15" s="43"/>
-      <c r="B15" s="43"/>
-      <c r="C15" s="43"/>
-      <c r="D15" s="43"/>
-      <c r="E15" s="43"/>
-      <c r="F15" s="43"/>
-      <c r="G15" s="43"/>
-      <c r="H15" s="43"/>
-      <c r="I15" s="43"/>
-      <c r="J15" s="43"/>
-      <c r="K15" s="43"/>
-      <c r="L15" s="43"/>
-      <c r="M15" s="43"/>
-      <c r="N15" s="43"/>
-      <c r="O15" s="43"/>
-      <c r="P15" s="43"/>
+      <c r="A15" s="55"/>
+      <c r="B15" s="55"/>
+      <c r="C15" s="55"/>
+      <c r="D15" s="55"/>
+      <c r="E15" s="55"/>
+      <c r="F15" s="55"/>
+      <c r="G15" s="55"/>
+      <c r="H15" s="55"/>
+      <c r="I15" s="55"/>
+      <c r="J15" s="55"/>
+      <c r="K15" s="55"/>
+      <c r="L15" s="55"/>
+      <c r="M15" s="55"/>
+      <c r="N15" s="55"/>
+      <c r="O15" s="55"/>
+      <c r="P15" s="55"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A18" s="45" t="s">
+      <c r="A18" s="51" t="s">
         <v>106</v>
       </c>
-      <c r="B18" s="46"/>
-      <c r="C18" s="46"/>
-      <c r="D18" s="46"/>
-      <c r="E18" s="46"/>
-      <c r="F18" s="46"/>
-      <c r="G18" s="46"/>
-      <c r="H18" s="46"/>
-      <c r="I18" s="46"/>
-      <c r="J18" s="46"/>
-      <c r="K18" s="46"/>
-      <c r="L18" s="46"/>
-      <c r="M18" s="46"/>
-      <c r="N18" s="46"/>
-      <c r="O18" s="46"/>
-      <c r="P18" s="47"/>
+      <c r="B18" s="52"/>
+      <c r="C18" s="52"/>
+      <c r="D18" s="52"/>
+      <c r="E18" s="52"/>
+      <c r="F18" s="52"/>
+      <c r="G18" s="52"/>
+      <c r="H18" s="52"/>
+      <c r="I18" s="52"/>
+      <c r="J18" s="52"/>
+      <c r="K18" s="52"/>
+      <c r="L18" s="52"/>
+      <c r="M18" s="52"/>
+      <c r="N18" s="52"/>
+      <c r="O18" s="52"/>
+      <c r="P18" s="53"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B19" s="57" t="s">
+      <c r="B19" s="47" t="s">
         <v>107</v>
       </c>
-      <c r="C19" s="58"/>
-      <c r="D19" s="57" t="s">
+      <c r="C19" s="48"/>
+      <c r="D19" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="E19" s="58"/>
+      <c r="E19" s="48"/>
       <c r="F19" s="14" t="s">
         <v>2</v>
       </c>
       <c r="G19" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="H19" s="57" t="s">
+      <c r="H19" s="47" t="s">
         <v>108</v>
       </c>
-      <c r="I19" s="60"/>
-      <c r="J19" s="58"/>
-      <c r="K19" s="57" t="s">
+      <c r="I19" s="50"/>
+      <c r="J19" s="48"/>
+      <c r="K19" s="47" t="s">
         <v>109</v>
       </c>
-      <c r="L19" s="60"/>
-      <c r="M19" s="60"/>
-      <c r="N19" s="60"/>
-      <c r="O19" s="60"/>
-      <c r="P19" s="58"/>
+      <c r="L19" s="50"/>
+      <c r="M19" s="50"/>
+      <c r="N19" s="50"/>
+      <c r="O19" s="50"/>
+      <c r="P19" s="48"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" s="15">
         <v>1</v>
       </c>
-      <c r="B20" s="52" t="s">
+      <c r="B20" s="37" t="s">
         <v>118</v>
       </c>
-      <c r="C20" s="54"/>
-      <c r="D20" s="52" t="s">
+      <c r="C20" s="39"/>
+      <c r="D20" s="37" t="s">
         <v>119</v>
       </c>
-      <c r="E20" s="54"/>
+      <c r="E20" s="39"/>
       <c r="F20" s="16"/>
       <c r="G20" s="16"/>
-      <c r="H20" s="49" t="s">
+      <c r="H20" s="42" t="s">
         <v>120</v>
       </c>
-      <c r="I20" s="50"/>
-      <c r="J20" s="51"/>
-      <c r="K20" s="52"/>
-      <c r="L20" s="53"/>
-      <c r="M20" s="53"/>
-      <c r="N20" s="53"/>
-      <c r="O20" s="53"/>
-      <c r="P20" s="54"/>
+      <c r="I20" s="43"/>
+      <c r="J20" s="44"/>
+      <c r="K20" s="37"/>
+      <c r="L20" s="38"/>
+      <c r="M20" s="38"/>
+      <c r="N20" s="38"/>
+      <c r="O20" s="38"/>
+      <c r="P20" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="K20:P20"/>
-    <mergeCell ref="A6:P6"/>
-    <mergeCell ref="A15:P15"/>
-    <mergeCell ref="A18:P18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="K19:P19"/>
     <mergeCell ref="A5:P5"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:G1"/>
@@ -3687,6 +3933,17 @@
     <mergeCell ref="I3:M3"/>
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="D4:M4"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="K20:P20"/>
+    <mergeCell ref="A6:P6"/>
+    <mergeCell ref="A15:P15"/>
+    <mergeCell ref="A18:P18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="K19:P19"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
